--- a/data/trans_bre/P1001-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.062475033861161</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.43253551012929</v>
+        <v>2.432535510129291</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5694423731357346</v>
@@ -649,7 +649,7 @@
         <v>0.4311702668528727</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4653309712916108</v>
+        <v>0.4653309712916111</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4948754295031147</v>
+        <v>-0.7095968425810345</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4067897300541747</v>
+        <v>-0.6028921775690259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.149018885188585</v>
+        <v>-1.352567903400577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.149070243633728</v>
+        <v>-0.6260393187692637</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1182211237281752</v>
+        <v>-0.1718995668222627</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1426370365494178</v>
+        <v>-0.1643466596338504</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2644623958232101</v>
+        <v>-0.2276764887730994</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1679073833690753</v>
+        <v>-0.1370938638955514</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.081820674596233</v>
+        <v>6.259835896481854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.881283918385443</v>
+        <v>6.980868861552344</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.6103848796199</v>
+        <v>5.539468867427624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.52414547852694</v>
+        <v>5.466767409468717</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.02179782473933</v>
+        <v>2.000378368994982</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.185210740592112</v>
+        <v>2.372212241531451</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.596037781224539</v>
+        <v>1.738260994190297</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.465576685321976</v>
+        <v>1.487122243563626</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5776092395865124</v>
+        <v>0.6834640837379006</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.479187476273262</v>
+        <v>-1.95812441924408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.428571995539619</v>
+        <v>-2.505151027205184</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.830423311173329</v>
+        <v>4.108617159164445</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06508933434826493</v>
+        <v>0.07101981953178677</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2024411825791255</v>
+        <v>-0.2682005310045196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3682389058458262</v>
+        <v>-0.3606609357473126</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.9253766062402852</v>
+        <v>0.9209733586269366</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.896981994921232</v>
+        <v>7.757742149410982</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.892626961880211</v>
+        <v>6.846031181867813</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.037301687803788</v>
+        <v>4.933792747810838</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.759098993194968</v>
+        <v>9.928712120997973</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.991459399526081</v>
+        <v>2.73427017039032</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.529919271938835</v>
+        <v>1.520387036437276</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.45557408904174</v>
+        <v>1.469325362153064</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.1492308690909</v>
+        <v>5.88366089635701</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.891595881913597</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.16910791874512</v>
+        <v>3.169107918745122</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7872277637845088</v>
@@ -849,7 +849,7 @@
         <v>0.9987140835452821</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4176952576280311</v>
+        <v>0.4176952576280313</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06728671333805639</v>
+        <v>-0.2584060307295309</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.116956985045326</v>
+        <v>3.717213183867942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.368720043007409</v>
+        <v>1.367527988266316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9873545530340555</v>
+        <v>-1.381965961325509</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.001075513956175255</v>
+        <v>-0.05053182945967032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.383165981694917</v>
+        <v>0.3560439535068742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1452340167904989</v>
+        <v>0.1274809704430439</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1287965770688111</v>
+        <v>-0.1685245619514976</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.03879293466272</v>
+        <v>11.23155163912983</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.14147290426789</v>
+        <v>14.6481680393756</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.77782217371271</v>
+        <v>14.25393501865646</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.507110187564209</v>
+        <v>7.623389499772755</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.191894599810959</v>
+        <v>2.098002815847233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.136172982146876</v>
+        <v>2.050495833039525</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.307952814174427</v>
+        <v>2.444026463346594</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.223811670518425</v>
+        <v>1.231294878289941</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.971736425300224</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.162627572382871</v>
+        <v>2.162627572382869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2607630225354309</v>
@@ -949,7 +949,7 @@
         <v>1.021989945000871</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3318480601854206</v>
+        <v>0.3318480601854203</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5097102139483533</v>
+        <v>-0.6181453274436932</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4749927320028847</v>
+        <v>0.6607452684693654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.280471786648613</v>
+        <v>3.080925926813699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.01160798888704318</v>
+        <v>-0.0403108543516699</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06163740188447552</v>
+        <v>-0.06811262307957493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04424451482184861</v>
+        <v>0.06331532483897614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4817827290366722</v>
+        <v>0.4862870944102572</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.002277977594272351</v>
+        <v>-0.009356333441695279</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.782075729267351</v>
+        <v>4.621176612921777</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.637281507072079</v>
+        <v>6.807127255043734</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.563925934065097</v>
+        <v>8.592565748688553</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.178711374083237</v>
+        <v>4.319797509341182</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6834705320231405</v>
+        <v>0.7015124298341281</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8345557452854723</v>
+        <v>0.8703862767889246</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.752405886344446</v>
+        <v>1.769270148795749</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7865225335796986</v>
+        <v>0.7869755233998177</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.285246587836925</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.239191495332507</v>
+        <v>7.239191495332509</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5616973097657932</v>
@@ -1049,7 +1049,7 @@
         <v>0.9847470384219597</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9742120553853074</v>
+        <v>0.9742120553853079</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4422836989025045</v>
+        <v>-0.1934097120896633</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.38417248804788</v>
+        <v>10.74194459136932</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.292398877569415</v>
+        <v>4.753745679500811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.969819476268496</v>
+        <v>4.289578158710375</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.07885201359110934</v>
+        <v>-0.0493586424352228</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.376796884286015</v>
+        <v>1.394692355343778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4385168672325209</v>
+        <v>0.4662605359805461</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3839877695832954</v>
+        <v>0.4728959108889405</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.206013968358693</v>
+        <v>7.366659502150714</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.89519075889669</v>
+        <v>17.93647004199001</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.55389963691854</v>
+        <v>11.68315712542649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.908003258321962</v>
+        <v>10.19107897889533</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.592436386810232</v>
+        <v>1.7264365652291</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.234402377177586</v>
+        <v>4.487357524768017</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.717552454222818</v>
+        <v>1.725269280707991</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.695181805904878</v>
+        <v>1.754541117102963</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.979987241624437</v>
+        <v>3.097956086352882</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.564834427877074</v>
+        <v>8.249588562812397</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.168843774841713</v>
+        <v>6.039542949311423</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.478196052691036</v>
+        <v>4.680843890783383</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4781235494755503</v>
+        <v>0.4675249831686246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.386649442237065</v>
+        <v>1.274005731043981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8647936412528</v>
+        <v>0.9804789085182222</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3773228445513425</v>
+        <v>0.4434273387314489</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.531839547652146</v>
+        <v>8.571346354982989</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.19414112540817</v>
+        <v>14.81517583128993</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.24489197364212</v>
+        <v>12.2343835394656</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.68362684301795</v>
+        <v>13.66370727925103</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.315364337124307</v>
+        <v>4.458860401027668</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>9.109714611224533</v>
+        <v>7.639645172021543</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.144171739397757</v>
+        <v>6.152019223727057</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>5.969243517271688</v>
+        <v>6.139834984147387</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>6.156116966069416</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.636772260023026</v>
+        <v>5.636772260023024</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5489774706368797</v>
@@ -1249,7 +1249,7 @@
         <v>1.011913841383391</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.948490720438992</v>
+        <v>0.9484907204389917</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.059142303401409</v>
+        <v>2.06033139796342</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.102588063223264</v>
+        <v>6.028143518183116</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.806550821801797</v>
+        <v>4.662530460363447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.411504797769685</v>
+        <v>4.530062736049293</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.303611645533861</v>
+        <v>0.3029202466469063</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7911117797520109</v>
+        <v>0.7846776731144146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7207324827582678</v>
+        <v>0.6911912555111016</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6668704760440612</v>
+        <v>0.6901989624346486</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.583297506174076</v>
+        <v>4.787984501931158</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.133076262612162</v>
+        <v>9.0527211525357</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.57306942182322</v>
+        <v>7.476931250049095</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.856403379728902</v>
+        <v>6.889667376401297</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8282730147501886</v>
+        <v>0.8739833606970651</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.418461029052877</v>
+        <v>1.442567180582519</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.378623192422809</v>
+        <v>1.384674258362201</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.275241870375371</v>
+        <v>1.320646701063635</v>
       </c>
     </row>
     <row r="25">
